--- a/Расписание_1-4_курсов_с_01.04_по_05.07.2021_(2_поток).xlsx
+++ b/Расписание_1-4_курсов_с_01.04_по_05.07.2021_(2_поток).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24402"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24405"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexey\Desktop\bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EE33D27-33A1-4733-9FD7-D7C535846ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{3EE33D27-33A1-4733-9FD7-D7C535846ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80697260-F69D-41B1-A03C-88A167FAB941}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295"/>
+    <workbookView xWindow="3060" yWindow="2160" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 курс" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1 курс'!$A$1:$H$68</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -616,7 +606,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1101,54 +1091,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1157,6 +1099,54 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1907,11 +1897,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1929,62 +1919,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:184" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:184" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
       <c r="G3" s="5" t="s">
         <v>49</v>
       </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:184" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:184" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
     </row>
@@ -1992,25 +1982,25 @@
       <c r="A6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="84" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="84" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="84" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="84" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="8"/>
@@ -2194,19 +2184,19 @@
       <c r="A7" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="77"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="77"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="77"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="77"/>
+      <c r="H7" s="74"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
@@ -2386,9 +2376,9 @@
     </row>
     <row r="8" spans="1:184" s="13" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30"/>
-      <c r="B8" s="73"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="32"/>
-      <c r="D8" s="86"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="30" t="s">
         <v>112</v>
       </c>
@@ -2398,7 +2388,7 @@
       <c r="G8" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="86">
+      <c r="H8" s="79">
         <v>104</v>
       </c>
       <c r="I8" s="11"/>
@@ -2580,17 +2570,17 @@
     </row>
     <row r="9" spans="1:184" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31"/>
-      <c r="B9" s="74"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="31"/>
-      <c r="D9" s="74"/>
+      <c r="D9" s="78"/>
       <c r="E9" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="86"/>
       <c r="G9" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="74"/>
+      <c r="H9" s="78"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="15"/>
@@ -2772,21 +2762,21 @@
       <c r="A10" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="73"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="75"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="83">
+      <c r="F10" s="87">
         <v>411</v>
       </c>
       <c r="G10" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="77">
         <v>403</v>
       </c>
       <c r="I10" s="14"/>
@@ -2970,19 +2960,19 @@
       <c r="A11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="74"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="74"/>
+      <c r="D11" s="78"/>
       <c r="E11" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="84"/>
+      <c r="F11" s="86"/>
       <c r="G11" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="74"/>
+      <c r="H11" s="78"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="15"/>
@@ -3164,21 +3154,21 @@
       <c r="A12" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="73"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="75"/>
+      <c r="D12" s="77"/>
       <c r="E12" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="80">
+      <c r="F12" s="75">
         <v>411</v>
       </c>
       <c r="G12" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="75">
+      <c r="H12" s="77">
         <v>403</v>
       </c>
       <c r="I12" s="18"/>
@@ -3362,19 +3352,19 @@
       <c r="A13" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="74"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="74"/>
+      <c r="D13" s="78"/>
       <c r="E13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="81"/>
+      <c r="F13" s="76"/>
       <c r="G13" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="74"/>
+      <c r="H13" s="78"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="15"/>
@@ -3556,21 +3546,21 @@
       <c r="A14" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="78"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="75"/>
+      <c r="D14" s="77"/>
       <c r="E14" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="80">
+      <c r="F14" s="75">
         <v>411</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="75">
+      <c r="H14" s="77">
         <v>403</v>
       </c>
       <c r="I14" s="18"/>
@@ -3754,19 +3744,19 @@
       <c r="A15" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="79"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="82"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="77"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="82"/>
+      <c r="H15" s="81"/>
       <c r="I15" s="18"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
@@ -4326,17 +4316,17 @@
     </row>
     <row r="18" spans="1:184" s="16" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="30"/>
-      <c r="B18" s="75"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="86">
+      <c r="D18" s="79">
         <v>211</v>
       </c>
       <c r="E18" s="30"/>
-      <c r="F18" s="86"/>
+      <c r="F18" s="79"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="86"/>
+      <c r="H18" s="79"/>
       <c r="I18" s="22"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
@@ -4516,15 +4506,15 @@
     </row>
     <row r="19" spans="1:184" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="31"/>
-      <c r="B19" s="74"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="74"/>
+      <c r="D19" s="78"/>
       <c r="E19" s="31"/>
-      <c r="F19" s="74"/>
+      <c r="F19" s="78"/>
       <c r="G19" s="31"/>
-      <c r="H19" s="74"/>
+      <c r="H19" s="78"/>
       <c r="I19" s="22"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
@@ -4706,25 +4696,25 @@
       <c r="A20" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="75">
+      <c r="B20" s="77">
         <v>214</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="73">
+      <c r="D20" s="80">
         <v>211</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="83">
+      <c r="F20" s="87">
         <v>411</v>
       </c>
       <c r="G20" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="75" t="s">
+      <c r="H20" s="77" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="22"/>
@@ -4908,19 +4898,19 @@
       <c r="A21" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="74"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="74"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="84"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="74"/>
+      <c r="H21" s="78"/>
       <c r="I21" s="22"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
@@ -5108,13 +5098,13 @@
       <c r="C22" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="77">
         <v>211</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="80">
+      <c r="F22" s="75">
         <v>411</v>
       </c>
       <c r="G22" s="33" t="s">
@@ -5308,11 +5298,11 @@
       <c r="C23" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="74"/>
+      <c r="D23" s="78"/>
       <c r="E23" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="81"/>
+      <c r="F23" s="76"/>
       <c r="G23" s="31" t="s">
         <v>1</v>
       </c>
@@ -5502,7 +5492,7 @@
       <c r="C24" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="75">
+      <c r="D24" s="77">
         <v>211</v>
       </c>
       <c r="E24" s="30" t="s">
@@ -5696,7 +5686,7 @@
       <c r="C25" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="82"/>
+      <c r="D25" s="81"/>
       <c r="E25" s="34"/>
       <c r="F25" s="65"/>
       <c r="G25" s="34" t="s">
@@ -6262,7 +6252,7 @@
     </row>
     <row r="28" spans="1:184" s="16" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="30"/>
-      <c r="B28" s="86"/>
+      <c r="B28" s="79"/>
       <c r="C28" s="30" t="s">
         <v>58</v>
       </c>
@@ -6270,11 +6260,11 @@
         <v>211</v>
       </c>
       <c r="E28" s="32"/>
-      <c r="F28" s="86"/>
+      <c r="F28" s="79"/>
       <c r="G28" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="H28" s="86">
+      <c r="H28" s="79">
         <v>311</v>
       </c>
       <c r="I28" s="22"/>
@@ -6456,17 +6446,17 @@
     </row>
     <row r="29" spans="1:184" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
-      <c r="B29" s="74"/>
+      <c r="B29" s="78"/>
       <c r="C29" s="31" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="63"/>
       <c r="E29" s="31"/>
-      <c r="F29" s="74"/>
+      <c r="F29" s="78"/>
       <c r="G29" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="74"/>
+      <c r="H29" s="78"/>
       <c r="I29" s="22"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
@@ -6648,7 +6638,7 @@
       <c r="A30" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="75">
+      <c r="B30" s="77">
         <v>214</v>
       </c>
       <c r="C30" s="30" t="s">
@@ -6660,13 +6650,13 @@
       <c r="E30" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="80">
+      <c r="F30" s="75">
         <v>411</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H30" s="75">
+      <c r="H30" s="77">
         <v>403</v>
       </c>
       <c r="I30" s="22"/>
@@ -6850,7 +6840,7 @@
       <c r="A31" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="74"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="31" t="s">
         <v>15</v>
       </c>
@@ -6858,11 +6848,11 @@
       <c r="E31" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="81"/>
+      <c r="F31" s="76"/>
       <c r="G31" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="74"/>
+      <c r="H31" s="78"/>
       <c r="I31" s="24"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
@@ -7044,25 +7034,25 @@
       <c r="A32" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="75">
+      <c r="B32" s="77">
         <v>214</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="75">
+      <c r="D32" s="77">
         <v>211</v>
       </c>
       <c r="E32" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="80">
+      <c r="F32" s="75">
         <v>411</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="H32" s="75">
+      <c r="H32" s="77">
         <v>403</v>
       </c>
       <c r="I32" s="22"/>
@@ -7246,19 +7236,19 @@
       <c r="A33" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="74"/>
+      <c r="B33" s="78"/>
       <c r="C33" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="74"/>
+      <c r="D33" s="78"/>
       <c r="E33" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="81"/>
+      <c r="F33" s="76"/>
       <c r="G33" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="74"/>
+      <c r="H33" s="78"/>
       <c r="I33" s="25"/>
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
@@ -7440,19 +7430,19 @@
       <c r="A34" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="75"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="30"/>
-      <c r="D34" s="73"/>
+      <c r="D34" s="80"/>
       <c r="E34" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="80">
+      <c r="F34" s="75">
         <v>411</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="75"/>
+      <c r="H34" s="77"/>
       <c r="I34" s="22"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
@@ -7632,15 +7622,15 @@
     </row>
     <row r="35" spans="1:184" s="26" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
-      <c r="B35" s="82"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="34"/>
-      <c r="D35" s="82"/>
+      <c r="D35" s="81"/>
       <c r="E35" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="77"/>
+      <c r="F35" s="74"/>
       <c r="G35" s="34"/>
-      <c r="H35" s="82"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="22"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
@@ -8202,17 +8192,17 @@
       <c r="A38" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="73"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="80">
+      <c r="D38" s="75">
         <v>211</v>
       </c>
       <c r="E38" s="30"/>
-      <c r="F38" s="73"/>
+      <c r="F38" s="80"/>
       <c r="G38" s="30"/>
-      <c r="H38" s="86"/>
+      <c r="H38" s="79"/>
       <c r="I38" s="24"/>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
@@ -8392,15 +8382,15 @@
     </row>
     <row r="39" spans="1:184" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
-      <c r="B39" s="74"/>
+      <c r="B39" s="78"/>
       <c r="C39" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="81"/>
+      <c r="D39" s="76"/>
       <c r="E39" s="31"/>
-      <c r="F39" s="74"/>
+      <c r="F39" s="78"/>
       <c r="G39" s="36"/>
-      <c r="H39" s="74"/>
+      <c r="H39" s="78"/>
       <c r="I39" s="24"/>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
@@ -8582,25 +8572,25 @@
       <c r="A40" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="73">
+      <c r="B40" s="80">
         <v>412</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="75">
+      <c r="D40" s="77">
         <v>211</v>
       </c>
       <c r="E40" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="F40" s="75" t="s">
+      <c r="F40" s="77" t="s">
         <v>113</v>
       </c>
       <c r="G40" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="H40" s="73">
+      <c r="H40" s="80">
         <v>404</v>
       </c>
       <c r="I40" s="22"/>
@@ -8784,19 +8774,19 @@
       <c r="A41" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="74"/>
+      <c r="B41" s="78"/>
       <c r="C41" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="74"/>
+      <c r="D41" s="78"/>
       <c r="E41" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="74"/>
+      <c r="F41" s="78"/>
       <c r="G41" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="74"/>
+      <c r="H41" s="78"/>
       <c r="I41" s="22"/>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
@@ -8978,25 +8968,25 @@
       <c r="A42" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="73">
+      <c r="B42" s="80">
         <v>412</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="75">
+      <c r="D42" s="77">
         <v>213</v>
       </c>
       <c r="E42" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="F42" s="75">
+      <c r="F42" s="77">
         <v>212</v>
       </c>
       <c r="G42" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="H42" s="75">
+      <c r="H42" s="77">
         <v>403</v>
       </c>
       <c r="I42" s="22"/>
@@ -9180,19 +9170,19 @@
       <c r="A43" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="74"/>
+      <c r="B43" s="78"/>
       <c r="C43" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="74"/>
+      <c r="D43" s="78"/>
       <c r="E43" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="74"/>
+      <c r="F43" s="78"/>
       <c r="G43" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H43" s="81"/>
+      <c r="H43" s="76"/>
       <c r="I43" s="22"/>
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
@@ -9374,19 +9364,19 @@
       <c r="A44" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="73">
+      <c r="B44" s="80">
         <v>412</v>
       </c>
       <c r="C44" s="33"/>
-      <c r="D44" s="73"/>
+      <c r="D44" s="80"/>
       <c r="E44" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="78"/>
+      <c r="F44" s="82"/>
       <c r="G44" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="H44" s="73">
+      <c r="H44" s="80">
         <v>403</v>
       </c>
       <c r="I44" s="22"/>
@@ -9570,15 +9560,15 @@
       <c r="A45" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="82"/>
+      <c r="B45" s="81"/>
       <c r="C45" s="34"/>
-      <c r="D45" s="82"/>
+      <c r="D45" s="81"/>
       <c r="E45" s="37"/>
-      <c r="F45" s="79"/>
+      <c r="F45" s="83"/>
       <c r="G45" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="H45" s="82"/>
+      <c r="H45" s="81"/>
       <c r="I45" s="22"/>
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
@@ -10140,23 +10130,23 @@
       <c r="A48" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="73">
+      <c r="B48" s="80">
         <v>214</v>
       </c>
       <c r="C48" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="86">
+      <c r="D48" s="79">
         <v>211</v>
       </c>
       <c r="E48" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="73"/>
+      <c r="F48" s="80"/>
       <c r="G48" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="H48" s="73">
+      <c r="H48" s="80">
         <v>112</v>
       </c>
       <c r="I48" s="22"/>
@@ -10340,17 +10330,17 @@
       <c r="A49" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="74"/>
+      <c r="B49" s="78"/>
       <c r="C49" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="74"/>
+      <c r="D49" s="78"/>
       <c r="E49" s="31"/>
-      <c r="F49" s="74"/>
+      <c r="F49" s="78"/>
       <c r="G49" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H49" s="74"/>
+      <c r="H49" s="78"/>
       <c r="I49" s="22"/>
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
@@ -10532,25 +10522,25 @@
       <c r="A50" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="73">
+      <c r="B50" s="80">
         <v>214</v>
       </c>
       <c r="C50" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="75">
+      <c r="D50" s="77">
         <v>211</v>
       </c>
       <c r="E50" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="75">
+      <c r="F50" s="77">
         <v>412</v>
       </c>
       <c r="G50" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="H50" s="75">
+      <c r="H50" s="77">
         <v>112</v>
       </c>
       <c r="I50" s="22"/>
@@ -10734,19 +10724,19 @@
       <c r="A51" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="74"/>
+      <c r="B51" s="78"/>
       <c r="C51" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="74"/>
+      <c r="D51" s="78"/>
       <c r="E51" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="74"/>
+      <c r="F51" s="78"/>
       <c r="G51" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H51" s="74"/>
+      <c r="H51" s="78"/>
       <c r="I51" s="22"/>
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
@@ -10928,25 +10918,25 @@
       <c r="A52" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="75">
+      <c r="B52" s="77">
         <v>213</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D52" s="75">
+      <c r="D52" s="77">
         <v>212</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F52" s="75">
+      <c r="F52" s="77">
         <v>412</v>
       </c>
       <c r="G52" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H52" s="80"/>
+      <c r="H52" s="75"/>
       <c r="I52" s="22"/>
       <c r="J52" s="15"/>
       <c r="K52" s="15"/>
@@ -11128,17 +11118,17 @@
       <c r="A53" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="74"/>
+      <c r="B53" s="78"/>
       <c r="C53" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="74"/>
+      <c r="D53" s="78"/>
       <c r="E53" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F53" s="74"/>
+      <c r="F53" s="78"/>
       <c r="G53" s="31"/>
-      <c r="H53" s="81"/>
+      <c r="H53" s="76"/>
       <c r="I53" s="22"/>
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
@@ -11320,23 +11310,23 @@
       <c r="A54" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="75">
+      <c r="B54" s="77">
         <v>213</v>
       </c>
       <c r="C54" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="75">
+      <c r="D54" s="77">
         <v>212</v>
       </c>
       <c r="E54" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F54" s="73">
+      <c r="F54" s="80">
         <v>412</v>
       </c>
       <c r="G54" s="30"/>
-      <c r="H54" s="73"/>
+      <c r="H54" s="80"/>
       <c r="I54" s="22"/>
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
@@ -11518,17 +11508,17 @@
       <c r="A55" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="82"/>
+      <c r="B55" s="81"/>
       <c r="C55" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="82"/>
+      <c r="D55" s="81"/>
       <c r="E55" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F55" s="82"/>
+      <c r="F55" s="81"/>
       <c r="G55" s="34"/>
-      <c r="H55" s="82"/>
+      <c r="H55" s="81"/>
       <c r="I55" s="23"/>
       <c r="J55" s="15"/>
       <c r="K55" s="15"/>
@@ -12090,19 +12080,19 @@
       <c r="A58" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="75">
+      <c r="B58" s="77">
         <v>112</v>
       </c>
       <c r="C58" s="32"/>
-      <c r="D58" s="86"/>
+      <c r="D58" s="79"/>
       <c r="E58" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="F58" s="76">
+      <c r="F58" s="84">
         <v>412</v>
       </c>
       <c r="G58" s="30"/>
-      <c r="H58" s="73"/>
+      <c r="H58" s="80"/>
       <c r="I58" s="22"/>
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
@@ -12284,15 +12274,15 @@
       <c r="A59" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="74"/>
+      <c r="B59" s="78"/>
       <c r="C59" s="31"/>
-      <c r="D59" s="74"/>
+      <c r="D59" s="78"/>
       <c r="E59" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F59" s="81"/>
+      <c r="F59" s="76"/>
       <c r="G59" s="31"/>
-      <c r="H59" s="74"/>
+      <c r="H59" s="78"/>
       <c r="I59" s="22"/>
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
@@ -12474,7 +12464,7 @@
       <c r="A60" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="75" t="s">
+      <c r="B60" s="77" t="s">
         <v>67</v>
       </c>
       <c r="C60" s="30" t="s">
@@ -12486,11 +12476,11 @@
       <c r="E60" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F60" s="80">
+      <c r="F60" s="75">
         <v>412</v>
       </c>
       <c r="G60" s="33"/>
-      <c r="H60" s="80"/>
+      <c r="H60" s="75"/>
       <c r="I60" s="22"/>
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
@@ -12672,7 +12662,7 @@
       <c r="A61" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="74"/>
+      <c r="B61" s="78"/>
       <c r="C61" s="31" t="s">
         <v>65</v>
       </c>
@@ -12680,9 +12670,9 @@
       <c r="E61" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="81"/>
+      <c r="F61" s="76"/>
       <c r="G61" s="31"/>
-      <c r="H61" s="81"/>
+      <c r="H61" s="76"/>
       <c r="I61" s="22"/>
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
@@ -12864,21 +12854,21 @@
       <c r="A62" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="75">
+      <c r="B62" s="77">
         <v>214</v>
       </c>
       <c r="C62" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="75" t="s">
+      <c r="D62" s="77" t="s">
         <v>67</v>
       </c>
       <c r="E62" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="F62" s="80"/>
+      <c r="F62" s="75"/>
       <c r="G62" s="33"/>
-      <c r="H62" s="75"/>
+      <c r="H62" s="77"/>
       <c r="I62" s="22"/>
       <c r="J62" s="15"/>
       <c r="K62" s="15"/>
@@ -13060,15 +13050,15 @@
       <c r="A63" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B63" s="74"/>
+      <c r="B63" s="78"/>
       <c r="C63" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="74"/>
+      <c r="D63" s="78"/>
       <c r="E63" s="31"/>
-      <c r="F63" s="81"/>
+      <c r="F63" s="76"/>
       <c r="G63" s="31"/>
-      <c r="H63" s="74"/>
+      <c r="H63" s="78"/>
       <c r="I63" s="22"/>
       <c r="J63" s="15"/>
       <c r="K63" s="15"/>
@@ -13250,17 +13240,17 @@
       <c r="A64" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B64" s="87">
+      <c r="B64" s="71">
         <v>214</v>
       </c>
       <c r="C64" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="89"/>
+      <c r="D64" s="73"/>
       <c r="E64" s="30"/>
-      <c r="F64" s="80"/>
+      <c r="F64" s="75"/>
       <c r="G64" s="35"/>
-      <c r="H64" s="78"/>
+      <c r="H64" s="82"/>
       <c r="I64" s="22"/>
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
@@ -13442,13 +13432,13 @@
       <c r="A65" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="88"/>
+      <c r="B65" s="72"/>
       <c r="C65" s="34"/>
-      <c r="D65" s="77"/>
+      <c r="D65" s="74"/>
       <c r="E65" s="34"/>
-      <c r="F65" s="77"/>
+      <c r="F65" s="74"/>
       <c r="G65" s="37"/>
-      <c r="H65" s="79"/>
+      <c r="H65" s="83"/>
       <c r="I65" s="22"/>
       <c r="J65" s="15"/>
       <c r="K65" s="15"/>
@@ -13842,6 +13832,84 @@
     <row r="69" spans="1:184" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H42:H43"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="F32:F33"/>
@@ -13852,90 +13920,12 @@
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="D62:D63"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H44:H45"/>
     <mergeCell ref="B40:B41"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="H54:H55"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="B38:B39"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D14:D15"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="D34:D35"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F18:F19"/>
     <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -13950,7 +13940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Расписание_1-4_курсов_с_01.04_по_05.07.2021_(2_поток).xlsx
+++ b/Расписание_1-4_курсов_с_01.04_по_05.07.2021_(2_поток).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24416"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexey\Desktop\bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{3EE33D27-33A1-4733-9FD7-D7C535846ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80697260-F69D-41B1-A03C-88A167FAB941}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{CDA2E3FC-5990-45AE-A4FC-78854E7EC3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F6E07D3-E585-43D4-B86A-037F480635C9}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="2160" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1185,7 +1185,7 @@
         <xdr:cNvPr id="10560" name="Picture 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD136909-682D-4C50-8856-32C09F9F0358}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD93CB27-A334-411C-9009-A538B1724C71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1259,7 +1259,7 @@
         <xdr:cNvPr id="10561" name="Rectangle 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A844E9-BEB1-4A84-B155-BE210B607E32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41BF0BA6-6881-427C-B044-8F9E2825219C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1315,7 +1315,7 @@
         <xdr:cNvPr id="10562" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8FB67C-2373-4734-9C34-1E71592E233F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05093636-0C6C-4992-B0BB-5850ECEFE1EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1389,7 +1389,7 @@
         <xdr:cNvPr id="10563" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BE5F07B-217C-40A5-8C52-9CDF4F7A23D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7149480-FDB2-4112-85E6-627BC471D488}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1463,7 +1463,7 @@
         <xdr:cNvPr id="19" name="Text Box 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97090316-B9FA-4F2B-99C0-4362EE4257A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE35675E-21E3-4296-9190-800571E5A3F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1900,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Расписание_1-4_курсов_с_01.04_по_05.07.2021_(2_поток).xlsx
+++ b/Расписание_1-4_курсов_с_01.04_по_05.07.2021_(2_поток).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexey\Desktop\bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{CDA2E3FC-5990-45AE-A4FC-78854E7EC3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F6E07D3-E585-43D4-B86A-037F480635C9}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{25E4853D-5571-4264-93B6-D92F4646BBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{409D91AD-4C4E-41DF-9483-FE019120CBE7}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="2160" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1185,7 +1185,7 @@
         <xdr:cNvPr id="10560" name="Picture 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD93CB27-A334-411C-9009-A538B1724C71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8D93732-8DD6-4159-A290-01DB3FC0B62C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1259,7 +1259,7 @@
         <xdr:cNvPr id="10561" name="Rectangle 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41BF0BA6-6881-427C-B044-8F9E2825219C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EAED38D-D822-4F3B-91B6-AF066D447FAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1315,7 +1315,7 @@
         <xdr:cNvPr id="10562" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05093636-0C6C-4992-B0BB-5850ECEFE1EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC345808-7FDC-4549-B86D-F61F67020E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1389,7 +1389,7 @@
         <xdr:cNvPr id="10563" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7149480-FDB2-4112-85E6-627BC471D488}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{438CBC4D-47BC-4800-9613-A1A02B10E9E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1463,7 +1463,7 @@
         <xdr:cNvPr id="19" name="Text Box 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE35675E-21E3-4296-9190-800571E5A3F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{439E9297-AC9E-450D-AEB5-C3FB54739CAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1900,7 +1900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/Расписание_1-4_курсов_с_01.04_по_05.07.2021_(2_поток).xlsx
+++ b/Расписание_1-4_курсов_с_01.04_по_05.07.2021_(2_поток).xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{25E4853D-5571-4264-93B6-D92F4646BBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{409D91AD-4C4E-41DF-9483-FE019120CBE7}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="2160" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7305" yWindow="2460" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 курс" sheetId="1" r:id="rId1"/>
@@ -1091,6 +1091,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1099,54 +1147,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1900,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A47" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1919,62 +1919,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:184" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:184" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="5" t="s">
         <v>49</v>
       </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:184" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:184" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
     </row>
@@ -1982,25 +1982,25 @@
       <c r="A6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="76" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="76" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="76" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="84" t="s">
+      <c r="H6" s="76" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="8"/>
@@ -2184,19 +2184,19 @@
       <c r="A7" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="74"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="74"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="74"/>
+      <c r="F7" s="77"/>
       <c r="G7" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="74"/>
+      <c r="H7" s="77"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
@@ -2376,9 +2376,9 @@
     </row>
     <row r="8" spans="1:184" s="13" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30"/>
-      <c r="B8" s="80"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="32"/>
-      <c r="D8" s="79"/>
+      <c r="D8" s="86"/>
       <c r="E8" s="30" t="s">
         <v>112</v>
       </c>
@@ -2388,7 +2388,7 @@
       <c r="G8" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="79">
+      <c r="H8" s="86">
         <v>104</v>
       </c>
       <c r="I8" s="11"/>
@@ -2570,17 +2570,17 @@
     </row>
     <row r="9" spans="1:184" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31"/>
-      <c r="B9" s="78"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="31"/>
-      <c r="D9" s="78"/>
+      <c r="D9" s="74"/>
       <c r="E9" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="84"/>
       <c r="G9" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="78"/>
+      <c r="H9" s="74"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="15"/>
@@ -2762,21 +2762,21 @@
       <c r="A10" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="80"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="77"/>
+      <c r="D10" s="75"/>
       <c r="E10" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="87">
+      <c r="F10" s="83">
         <v>411</v>
       </c>
       <c r="G10" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="75">
         <v>403</v>
       </c>
       <c r="I10" s="14"/>
@@ -2960,19 +2960,19 @@
       <c r="A11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="78"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="78"/>
+      <c r="D11" s="74"/>
       <c r="E11" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="86"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="78"/>
+      <c r="H11" s="74"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="15"/>
@@ -3154,21 +3154,21 @@
       <c r="A12" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="80"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="77"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="75">
+      <c r="F12" s="80">
         <v>411</v>
       </c>
       <c r="G12" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H12" s="75">
         <v>403</v>
       </c>
       <c r="I12" s="18"/>
@@ -3352,19 +3352,19 @@
       <c r="A13" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="78"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="78"/>
+      <c r="D13" s="74"/>
       <c r="E13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="76"/>
+      <c r="F13" s="81"/>
       <c r="G13" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="78"/>
+      <c r="H13" s="74"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="15"/>
@@ -3546,21 +3546,21 @@
       <c r="A14" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="82"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="77"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="75">
+      <c r="F14" s="80">
         <v>411</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="77">
+      <c r="H14" s="75">
         <v>403</v>
       </c>
       <c r="I14" s="18"/>
@@ -3744,19 +3744,19 @@
       <c r="A15" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="81"/>
+      <c r="D15" s="82"/>
       <c r="E15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="74"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="81"/>
+      <c r="H15" s="82"/>
       <c r="I15" s="18"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
@@ -4316,17 +4316,17 @@
     </row>
     <row r="18" spans="1:184" s="16" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="30"/>
-      <c r="B18" s="77"/>
+      <c r="B18" s="75"/>
       <c r="C18" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="79">
+      <c r="D18" s="86">
         <v>211</v>
       </c>
       <c r="E18" s="30"/>
-      <c r="F18" s="79"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="79"/>
+      <c r="H18" s="86"/>
       <c r="I18" s="22"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
@@ -4506,15 +4506,15 @@
     </row>
     <row r="19" spans="1:184" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="31"/>
-      <c r="B19" s="78"/>
+      <c r="B19" s="74"/>
       <c r="C19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="78"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="31"/>
-      <c r="F19" s="78"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="31"/>
-      <c r="H19" s="78"/>
+      <c r="H19" s="74"/>
       <c r="I19" s="22"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
@@ -4696,25 +4696,25 @@
       <c r="A20" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="77">
+      <c r="B20" s="75">
         <v>214</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="80">
+      <c r="D20" s="73">
         <v>211</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="87">
+      <c r="F20" s="83">
         <v>411</v>
       </c>
       <c r="G20" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="77" t="s">
+      <c r="H20" s="75" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="22"/>
@@ -4898,19 +4898,19 @@
       <c r="A21" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="78"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="78"/>
+      <c r="D21" s="74"/>
       <c r="E21" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="86"/>
+      <c r="F21" s="84"/>
       <c r="G21" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="78"/>
+      <c r="H21" s="74"/>
       <c r="I21" s="22"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
@@ -5098,13 +5098,13 @@
       <c r="C22" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="77">
+      <c r="D22" s="75">
         <v>211</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="75">
+      <c r="F22" s="80">
         <v>411</v>
       </c>
       <c r="G22" s="33" t="s">
@@ -5298,11 +5298,11 @@
       <c r="C23" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="78"/>
+      <c r="D23" s="74"/>
       <c r="E23" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="76"/>
+      <c r="F23" s="81"/>
       <c r="G23" s="31" t="s">
         <v>1</v>
       </c>
@@ -5492,7 +5492,7 @@
       <c r="C24" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="77">
+      <c r="D24" s="75">
         <v>211</v>
       </c>
       <c r="E24" s="30" t="s">
@@ -5686,7 +5686,7 @@
       <c r="C25" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="81"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="34"/>
       <c r="F25" s="65"/>
       <c r="G25" s="34" t="s">
@@ -6252,7 +6252,7 @@
     </row>
     <row r="28" spans="1:184" s="16" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="30"/>
-      <c r="B28" s="79"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="30" t="s">
         <v>58</v>
       </c>
@@ -6260,11 +6260,11 @@
         <v>211</v>
       </c>
       <c r="E28" s="32"/>
-      <c r="F28" s="79"/>
+      <c r="F28" s="86"/>
       <c r="G28" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="H28" s="79">
+      <c r="H28" s="86">
         <v>311</v>
       </c>
       <c r="I28" s="22"/>
@@ -6446,17 +6446,17 @@
     </row>
     <row r="29" spans="1:184" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
-      <c r="B29" s="78"/>
+      <c r="B29" s="74"/>
       <c r="C29" s="31" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="63"/>
       <c r="E29" s="31"/>
-      <c r="F29" s="78"/>
+      <c r="F29" s="74"/>
       <c r="G29" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="78"/>
+      <c r="H29" s="74"/>
       <c r="I29" s="22"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
@@ -6638,7 +6638,7 @@
       <c r="A30" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="77">
+      <c r="B30" s="75">
         <v>214</v>
       </c>
       <c r="C30" s="30" t="s">
@@ -6650,13 +6650,13 @@
       <c r="E30" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="75">
+      <c r="F30" s="80">
         <v>411</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H30" s="77">
+      <c r="H30" s="75">
         <v>403</v>
       </c>
       <c r="I30" s="22"/>
@@ -6840,7 +6840,7 @@
       <c r="A31" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="78"/>
+      <c r="B31" s="74"/>
       <c r="C31" s="31" t="s">
         <v>15</v>
       </c>
@@ -6848,11 +6848,11 @@
       <c r="E31" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="76"/>
+      <c r="F31" s="81"/>
       <c r="G31" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="78"/>
+      <c r="H31" s="74"/>
       <c r="I31" s="24"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
@@ -7034,25 +7034,25 @@
       <c r="A32" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="77">
+      <c r="B32" s="75">
         <v>214</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="77">
+      <c r="D32" s="75">
         <v>211</v>
       </c>
       <c r="E32" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="75">
+      <c r="F32" s="80">
         <v>411</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="H32" s="77">
+      <c r="H32" s="75">
         <v>403</v>
       </c>
       <c r="I32" s="22"/>
@@ -7236,19 +7236,19 @@
       <c r="A33" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="78"/>
+      <c r="B33" s="74"/>
       <c r="C33" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="78"/>
+      <c r="D33" s="74"/>
       <c r="E33" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="76"/>
+      <c r="F33" s="81"/>
       <c r="G33" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="78"/>
+      <c r="H33" s="74"/>
       <c r="I33" s="25"/>
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
@@ -7430,19 +7430,19 @@
       <c r="A34" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="77"/>
+      <c r="B34" s="75"/>
       <c r="C34" s="30"/>
-      <c r="D34" s="80"/>
+      <c r="D34" s="73"/>
       <c r="E34" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="75">
+      <c r="F34" s="80">
         <v>411</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="77"/>
+      <c r="H34" s="75"/>
       <c r="I34" s="22"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
@@ -7622,15 +7622,15 @@
     </row>
     <row r="35" spans="1:184" s="26" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
-      <c r="B35" s="81"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="34"/>
-      <c r="D35" s="81"/>
+      <c r="D35" s="82"/>
       <c r="E35" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="74"/>
+      <c r="F35" s="77"/>
       <c r="G35" s="34"/>
-      <c r="H35" s="81"/>
+      <c r="H35" s="82"/>
       <c r="I35" s="22"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
@@ -8192,17 +8192,17 @@
       <c r="A38" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="80"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="75">
+      <c r="D38" s="80">
         <v>211</v>
       </c>
       <c r="E38" s="30"/>
-      <c r="F38" s="80"/>
+      <c r="F38" s="73"/>
       <c r="G38" s="30"/>
-      <c r="H38" s="79"/>
+      <c r="H38" s="86"/>
       <c r="I38" s="24"/>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
@@ -8382,15 +8382,15 @@
     </row>
     <row r="39" spans="1:184" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
-      <c r="B39" s="78"/>
+      <c r="B39" s="74"/>
       <c r="C39" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="76"/>
+      <c r="D39" s="81"/>
       <c r="E39" s="31"/>
-      <c r="F39" s="78"/>
+      <c r="F39" s="74"/>
       <c r="G39" s="36"/>
-      <c r="H39" s="78"/>
+      <c r="H39" s="74"/>
       <c r="I39" s="24"/>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
@@ -8572,25 +8572,25 @@
       <c r="A40" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="80">
+      <c r="B40" s="73">
         <v>412</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="77">
+      <c r="D40" s="75">
         <v>211</v>
       </c>
       <c r="E40" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="F40" s="77" t="s">
+      <c r="F40" s="75" t="s">
         <v>113</v>
       </c>
       <c r="G40" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="H40" s="80">
+      <c r="H40" s="73">
         <v>404</v>
       </c>
       <c r="I40" s="22"/>
@@ -8774,19 +8774,19 @@
       <c r="A41" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="78"/>
+      <c r="B41" s="74"/>
       <c r="C41" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="78"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="78"/>
+      <c r="F41" s="74"/>
       <c r="G41" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="78"/>
+      <c r="H41" s="74"/>
       <c r="I41" s="22"/>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
@@ -8968,25 +8968,25 @@
       <c r="A42" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="80">
+      <c r="B42" s="73">
         <v>412</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="77">
+      <c r="D42" s="75">
         <v>213</v>
       </c>
       <c r="E42" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="F42" s="77">
+      <c r="F42" s="75">
         <v>212</v>
       </c>
       <c r="G42" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="H42" s="77">
+      <c r="H42" s="75">
         <v>403</v>
       </c>
       <c r="I42" s="22"/>
@@ -9170,19 +9170,19 @@
       <c r="A43" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="78"/>
+      <c r="B43" s="74"/>
       <c r="C43" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="78"/>
+      <c r="D43" s="74"/>
       <c r="E43" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="78"/>
+      <c r="F43" s="74"/>
       <c r="G43" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H43" s="76"/>
+      <c r="H43" s="81"/>
       <c r="I43" s="22"/>
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
@@ -9364,19 +9364,19 @@
       <c r="A44" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="80">
+      <c r="B44" s="73">
         <v>412</v>
       </c>
       <c r="C44" s="33"/>
-      <c r="D44" s="80"/>
+      <c r="D44" s="73"/>
       <c r="E44" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="82"/>
+      <c r="F44" s="78"/>
       <c r="G44" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="H44" s="80">
+      <c r="H44" s="73">
         <v>403</v>
       </c>
       <c r="I44" s="22"/>
@@ -9560,15 +9560,15 @@
       <c r="A45" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="81"/>
+      <c r="B45" s="82"/>
       <c r="C45" s="34"/>
-      <c r="D45" s="81"/>
+      <c r="D45" s="82"/>
       <c r="E45" s="37"/>
-      <c r="F45" s="83"/>
+      <c r="F45" s="79"/>
       <c r="G45" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="H45" s="81"/>
+      <c r="H45" s="82"/>
       <c r="I45" s="22"/>
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
@@ -10130,23 +10130,23 @@
       <c r="A48" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="80">
+      <c r="B48" s="73">
         <v>214</v>
       </c>
       <c r="C48" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="79">
+      <c r="D48" s="86">
         <v>211</v>
       </c>
       <c r="E48" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="80"/>
+      <c r="F48" s="73"/>
       <c r="G48" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="H48" s="80">
+      <c r="H48" s="73">
         <v>112</v>
       </c>
       <c r="I48" s="22"/>
@@ -10330,17 +10330,17 @@
       <c r="A49" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="78"/>
+      <c r="B49" s="74"/>
       <c r="C49" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="78"/>
+      <c r="D49" s="74"/>
       <c r="E49" s="31"/>
-      <c r="F49" s="78"/>
+      <c r="F49" s="74"/>
       <c r="G49" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H49" s="78"/>
+      <c r="H49" s="74"/>
       <c r="I49" s="22"/>
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
@@ -10522,25 +10522,25 @@
       <c r="A50" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="80">
+      <c r="B50" s="73">
         <v>214</v>
       </c>
       <c r="C50" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="77">
+      <c r="D50" s="75">
         <v>211</v>
       </c>
       <c r="E50" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="77">
+      <c r="F50" s="75">
         <v>412</v>
       </c>
       <c r="G50" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="H50" s="77">
+      <c r="H50" s="75">
         <v>112</v>
       </c>
       <c r="I50" s="22"/>
@@ -10724,19 +10724,19 @@
       <c r="A51" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="78"/>
+      <c r="B51" s="74"/>
       <c r="C51" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="78"/>
+      <c r="D51" s="74"/>
       <c r="E51" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="78"/>
+      <c r="F51" s="74"/>
       <c r="G51" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H51" s="78"/>
+      <c r="H51" s="74"/>
       <c r="I51" s="22"/>
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
@@ -10918,25 +10918,25 @@
       <c r="A52" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="77">
+      <c r="B52" s="75">
         <v>213</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D52" s="77">
+      <c r="D52" s="75">
         <v>212</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F52" s="77">
+      <c r="F52" s="75">
         <v>412</v>
       </c>
       <c r="G52" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H52" s="75"/>
+      <c r="H52" s="80"/>
       <c r="I52" s="22"/>
       <c r="J52" s="15"/>
       <c r="K52" s="15"/>
@@ -11118,17 +11118,17 @@
       <c r="A53" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="78"/>
+      <c r="B53" s="74"/>
       <c r="C53" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="78"/>
+      <c r="D53" s="74"/>
       <c r="E53" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F53" s="78"/>
+      <c r="F53" s="74"/>
       <c r="G53" s="31"/>
-      <c r="H53" s="76"/>
+      <c r="H53" s="81"/>
       <c r="I53" s="22"/>
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
@@ -11310,23 +11310,23 @@
       <c r="A54" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="77">
+      <c r="B54" s="75">
         <v>213</v>
       </c>
       <c r="C54" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="77">
+      <c r="D54" s="75">
         <v>212</v>
       </c>
       <c r="E54" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F54" s="80">
+      <c r="F54" s="73">
         <v>412</v>
       </c>
       <c r="G54" s="30"/>
-      <c r="H54" s="80"/>
+      <c r="H54" s="73"/>
       <c r="I54" s="22"/>
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
@@ -11508,17 +11508,17 @@
       <c r="A55" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="81"/>
+      <c r="B55" s="82"/>
       <c r="C55" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="81"/>
+      <c r="D55" s="82"/>
       <c r="E55" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F55" s="81"/>
+      <c r="F55" s="82"/>
       <c r="G55" s="34"/>
-      <c r="H55" s="81"/>
+      <c r="H55" s="82"/>
       <c r="I55" s="23"/>
       <c r="J55" s="15"/>
       <c r="K55" s="15"/>
@@ -12080,19 +12080,19 @@
       <c r="A58" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="77">
+      <c r="B58" s="75">
         <v>112</v>
       </c>
       <c r="C58" s="32"/>
-      <c r="D58" s="79"/>
+      <c r="D58" s="86"/>
       <c r="E58" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="F58" s="84">
+      <c r="F58" s="76">
         <v>412</v>
       </c>
       <c r="G58" s="30"/>
-      <c r="H58" s="80"/>
+      <c r="H58" s="73"/>
       <c r="I58" s="22"/>
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
@@ -12274,15 +12274,15 @@
       <c r="A59" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="78"/>
+      <c r="B59" s="74"/>
       <c r="C59" s="31"/>
-      <c r="D59" s="78"/>
+      <c r="D59" s="74"/>
       <c r="E59" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F59" s="76"/>
+      <c r="F59" s="81"/>
       <c r="G59" s="31"/>
-      <c r="H59" s="78"/>
+      <c r="H59" s="74"/>
       <c r="I59" s="22"/>
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
@@ -12464,7 +12464,7 @@
       <c r="A60" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="77" t="s">
+      <c r="B60" s="75" t="s">
         <v>67</v>
       </c>
       <c r="C60" s="30" t="s">
@@ -12476,11 +12476,11 @@
       <c r="E60" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F60" s="75">
+      <c r="F60" s="80">
         <v>412</v>
       </c>
       <c r="G60" s="33"/>
-      <c r="H60" s="75"/>
+      <c r="H60" s="80"/>
       <c r="I60" s="22"/>
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
@@ -12662,7 +12662,7 @@
       <c r="A61" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="78"/>
+      <c r="B61" s="74"/>
       <c r="C61" s="31" t="s">
         <v>65</v>
       </c>
@@ -12670,9 +12670,9 @@
       <c r="E61" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="76"/>
+      <c r="F61" s="81"/>
       <c r="G61" s="31"/>
-      <c r="H61" s="76"/>
+      <c r="H61" s="81"/>
       <c r="I61" s="22"/>
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
@@ -12854,21 +12854,21 @@
       <c r="A62" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="77">
+      <c r="B62" s="75">
         <v>214</v>
       </c>
       <c r="C62" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="77" t="s">
+      <c r="D62" s="75" t="s">
         <v>67</v>
       </c>
       <c r="E62" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="F62" s="75"/>
+      <c r="F62" s="80"/>
       <c r="G62" s="33"/>
-      <c r="H62" s="77"/>
+      <c r="H62" s="75"/>
       <c r="I62" s="22"/>
       <c r="J62" s="15"/>
       <c r="K62" s="15"/>
@@ -13050,15 +13050,15 @@
       <c r="A63" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B63" s="78"/>
+      <c r="B63" s="74"/>
       <c r="C63" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="78"/>
+      <c r="D63" s="74"/>
       <c r="E63" s="31"/>
-      <c r="F63" s="76"/>
+      <c r="F63" s="81"/>
       <c r="G63" s="31"/>
-      <c r="H63" s="78"/>
+      <c r="H63" s="74"/>
       <c r="I63" s="22"/>
       <c r="J63" s="15"/>
       <c r="K63" s="15"/>
@@ -13240,17 +13240,17 @@
       <c r="A64" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B64" s="71">
+      <c r="B64" s="87">
         <v>214</v>
       </c>
       <c r="C64" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="73"/>
+      <c r="D64" s="89"/>
       <c r="E64" s="30"/>
-      <c r="F64" s="75"/>
+      <c r="F64" s="80"/>
       <c r="G64" s="35"/>
-      <c r="H64" s="82"/>
+      <c r="H64" s="78"/>
       <c r="I64" s="22"/>
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
@@ -13432,13 +13432,13 @@
       <c r="A65" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="72"/>
+      <c r="B65" s="88"/>
       <c r="C65" s="34"/>
-      <c r="D65" s="74"/>
+      <c r="D65" s="77"/>
       <c r="E65" s="34"/>
-      <c r="F65" s="74"/>
+      <c r="F65" s="77"/>
       <c r="G65" s="37"/>
-      <c r="H65" s="83"/>
+      <c r="H65" s="79"/>
       <c r="I65" s="22"/>
       <c r="J65" s="15"/>
       <c r="K65" s="15"/>
@@ -13832,84 +13832,6 @@
     <row r="69" spans="1:184" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="H42:H43"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="F32:F33"/>
@@ -13926,6 +13848,84 @@
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="B62:B63"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="F20:F21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Расписание_1-4_курсов_с_01.04_по_05.07.2021_(2_поток).xlsx
+++ b/Расписание_1-4_курсов_с_01.04_по_05.07.2021_(2_поток).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexey\Desktop\bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{25E4853D-5571-4264-93B6-D92F4646BBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{409D91AD-4C4E-41DF-9483-FE019120CBE7}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{25E4853D-5571-4264-93B6-D92F4646BBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F98477F2-4BB9-4609-8A6F-FEB0CE91E51A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7305" yWindow="2460" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 курс" sheetId="1" r:id="rId1"/>
@@ -1091,54 +1091,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1147,6 +1099,54 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1900,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A47" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A38" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1919,62 +1919,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:184" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:184" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
       <c r="G3" s="5" t="s">
         <v>49</v>
       </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:184" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:184" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
     </row>
@@ -1982,25 +1982,25 @@
       <c r="A6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="82" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="82" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="82" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="82" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="8"/>
@@ -2184,19 +2184,19 @@
       <c r="A7" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="77"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="77"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="77"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="77"/>
+      <c r="H7" s="74"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
@@ -2376,19 +2376,19 @@
     </row>
     <row r="8" spans="1:184" s="13" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30"/>
-      <c r="B8" s="73"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="32"/>
-      <c r="D8" s="86"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="85">
+      <c r="F8" s="83">
         <v>411</v>
       </c>
       <c r="G8" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="86">
+      <c r="H8" s="79">
         <v>104</v>
       </c>
       <c r="I8" s="11"/>
@@ -2570,9 +2570,9 @@
     </row>
     <row r="9" spans="1:184" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31"/>
-      <c r="B9" s="74"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="31"/>
-      <c r="D9" s="74"/>
+      <c r="D9" s="78"/>
       <c r="E9" s="31" t="s">
         <v>35</v>
       </c>
@@ -2580,7 +2580,7 @@
       <c r="G9" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="74"/>
+      <c r="H9" s="78"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="15"/>
@@ -2762,21 +2762,21 @@
       <c r="A10" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="73"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="75"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="83">
+      <c r="F10" s="85">
         <v>411</v>
       </c>
       <c r="G10" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="77">
         <v>403</v>
       </c>
       <c r="I10" s="14"/>
@@ -2960,11 +2960,11 @@
       <c r="A11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="74"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="74"/>
+      <c r="D11" s="78"/>
       <c r="E11" s="48" t="s">
         <v>36</v>
       </c>
@@ -2972,7 +2972,7 @@
       <c r="G11" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="74"/>
+      <c r="H11" s="78"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="15"/>
@@ -3154,21 +3154,21 @@
       <c r="A12" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="73"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="75"/>
+      <c r="D12" s="77"/>
       <c r="E12" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="80">
+      <c r="F12" s="75">
         <v>411</v>
       </c>
       <c r="G12" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="75">
+      <c r="H12" s="77">
         <v>403</v>
       </c>
       <c r="I12" s="18"/>
@@ -3352,19 +3352,19 @@
       <c r="A13" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="74"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="74"/>
+      <c r="D13" s="78"/>
       <c r="E13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="81"/>
+      <c r="F13" s="76"/>
       <c r="G13" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="74"/>
+      <c r="H13" s="78"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="15"/>
@@ -3546,21 +3546,21 @@
       <c r="A14" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="78"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="75"/>
+      <c r="D14" s="77"/>
       <c r="E14" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="80">
+      <c r="F14" s="75">
         <v>411</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="75">
+      <c r="H14" s="77">
         <v>403</v>
       </c>
       <c r="I14" s="18"/>
@@ -3744,19 +3744,19 @@
       <c r="A15" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="79"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="82"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="77"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="82"/>
+      <c r="H15" s="81"/>
       <c r="I15" s="18"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
@@ -4316,17 +4316,17 @@
     </row>
     <row r="18" spans="1:184" s="16" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="30"/>
-      <c r="B18" s="75"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="86">
+      <c r="D18" s="79">
         <v>211</v>
       </c>
       <c r="E18" s="30"/>
-      <c r="F18" s="86"/>
+      <c r="F18" s="79"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="86"/>
+      <c r="H18" s="79"/>
       <c r="I18" s="22"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
@@ -4506,15 +4506,15 @@
     </row>
     <row r="19" spans="1:184" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="31"/>
-      <c r="B19" s="74"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="74"/>
+      <c r="D19" s="78"/>
       <c r="E19" s="31"/>
-      <c r="F19" s="74"/>
+      <c r="F19" s="78"/>
       <c r="G19" s="31"/>
-      <c r="H19" s="74"/>
+      <c r="H19" s="78"/>
       <c r="I19" s="22"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
@@ -4696,25 +4696,25 @@
       <c r="A20" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="75">
+      <c r="B20" s="77">
         <v>214</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="73">
+      <c r="D20" s="80">
         <v>211</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="83">
+      <c r="F20" s="85">
         <v>411</v>
       </c>
       <c r="G20" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="75" t="s">
+      <c r="H20" s="77" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="22"/>
@@ -4898,11 +4898,11 @@
       <c r="A21" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="74"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="74"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="48" t="s">
         <v>98</v>
       </c>
@@ -4910,7 +4910,7 @@
       <c r="G21" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="74"/>
+      <c r="H21" s="78"/>
       <c r="I21" s="22"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
@@ -5098,13 +5098,13 @@
       <c r="C22" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="77">
         <v>211</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="80">
+      <c r="F22" s="75">
         <v>411</v>
       </c>
       <c r="G22" s="33" t="s">
@@ -5298,11 +5298,11 @@
       <c r="C23" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="74"/>
+      <c r="D23" s="78"/>
       <c r="E23" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="81"/>
+      <c r="F23" s="76"/>
       <c r="G23" s="31" t="s">
         <v>1</v>
       </c>
@@ -5492,7 +5492,7 @@
       <c r="C24" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="75">
+      <c r="D24" s="77">
         <v>211</v>
       </c>
       <c r="E24" s="30" t="s">
@@ -5686,7 +5686,7 @@
       <c r="C25" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="82"/>
+      <c r="D25" s="81"/>
       <c r="E25" s="34"/>
       <c r="F25" s="65"/>
       <c r="G25" s="34" t="s">
@@ -6252,7 +6252,7 @@
     </row>
     <row r="28" spans="1:184" s="16" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="30"/>
-      <c r="B28" s="86"/>
+      <c r="B28" s="79"/>
       <c r="C28" s="30" t="s">
         <v>58</v>
       </c>
@@ -6260,11 +6260,11 @@
         <v>211</v>
       </c>
       <c r="E28" s="32"/>
-      <c r="F28" s="86"/>
+      <c r="F28" s="79"/>
       <c r="G28" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="H28" s="86">
+      <c r="H28" s="79">
         <v>311</v>
       </c>
       <c r="I28" s="22"/>
@@ -6446,17 +6446,17 @@
     </row>
     <row r="29" spans="1:184" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
-      <c r="B29" s="74"/>
+      <c r="B29" s="78"/>
       <c r="C29" s="31" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="63"/>
       <c r="E29" s="31"/>
-      <c r="F29" s="74"/>
+      <c r="F29" s="78"/>
       <c r="G29" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="74"/>
+      <c r="H29" s="78"/>
       <c r="I29" s="22"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
@@ -6638,7 +6638,7 @@
       <c r="A30" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="75">
+      <c r="B30" s="77">
         <v>214</v>
       </c>
       <c r="C30" s="30" t="s">
@@ -6650,13 +6650,13 @@
       <c r="E30" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="80">
+      <c r="F30" s="75">
         <v>411</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H30" s="75">
+      <c r="H30" s="77">
         <v>403</v>
       </c>
       <c r="I30" s="22"/>
@@ -6840,7 +6840,7 @@
       <c r="A31" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="74"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="31" t="s">
         <v>15</v>
       </c>
@@ -6848,11 +6848,11 @@
       <c r="E31" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="81"/>
+      <c r="F31" s="76"/>
       <c r="G31" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="74"/>
+      <c r="H31" s="78"/>
       <c r="I31" s="24"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
@@ -7034,25 +7034,25 @@
       <c r="A32" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="75">
+      <c r="B32" s="77">
         <v>214</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="75">
+      <c r="D32" s="77">
         <v>211</v>
       </c>
       <c r="E32" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="80">
+      <c r="F32" s="75">
         <v>411</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="H32" s="75">
+      <c r="H32" s="77">
         <v>403</v>
       </c>
       <c r="I32" s="22"/>
@@ -7236,19 +7236,19 @@
       <c r="A33" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="74"/>
+      <c r="B33" s="78"/>
       <c r="C33" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="74"/>
+      <c r="D33" s="78"/>
       <c r="E33" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="81"/>
+      <c r="F33" s="76"/>
       <c r="G33" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="74"/>
+      <c r="H33" s="78"/>
       <c r="I33" s="25"/>
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
@@ -7430,19 +7430,19 @@
       <c r="A34" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="75"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="30"/>
-      <c r="D34" s="73"/>
+      <c r="D34" s="80"/>
       <c r="E34" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="80">
+      <c r="F34" s="75">
         <v>411</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="75"/>
+      <c r="H34" s="77"/>
       <c r="I34" s="22"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
@@ -7622,15 +7622,15 @@
     </row>
     <row r="35" spans="1:184" s="26" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
-      <c r="B35" s="82"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="34"/>
-      <c r="D35" s="82"/>
+      <c r="D35" s="81"/>
       <c r="E35" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="77"/>
+      <c r="F35" s="74"/>
       <c r="G35" s="34"/>
-      <c r="H35" s="82"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="22"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
@@ -8192,17 +8192,17 @@
       <c r="A38" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="73"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="80">
+      <c r="D38" s="75">
         <v>211</v>
       </c>
       <c r="E38" s="30"/>
-      <c r="F38" s="73"/>
+      <c r="F38" s="80"/>
       <c r="G38" s="30"/>
-      <c r="H38" s="86"/>
+      <c r="H38" s="79"/>
       <c r="I38" s="24"/>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
@@ -8382,15 +8382,15 @@
     </row>
     <row r="39" spans="1:184" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
-      <c r="B39" s="74"/>
+      <c r="B39" s="78"/>
       <c r="C39" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="81"/>
+      <c r="D39" s="76"/>
       <c r="E39" s="31"/>
-      <c r="F39" s="74"/>
+      <c r="F39" s="78"/>
       <c r="G39" s="36"/>
-      <c r="H39" s="74"/>
+      <c r="H39" s="78"/>
       <c r="I39" s="24"/>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
@@ -8572,25 +8572,25 @@
       <c r="A40" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="73">
+      <c r="B40" s="80">
         <v>412</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="75">
+      <c r="D40" s="77">
         <v>211</v>
       </c>
       <c r="E40" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="F40" s="75" t="s">
+      <c r="F40" s="77" t="s">
         <v>113</v>
       </c>
       <c r="G40" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="H40" s="73">
+      <c r="H40" s="80">
         <v>404</v>
       </c>
       <c r="I40" s="22"/>
@@ -8774,19 +8774,19 @@
       <c r="A41" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="74"/>
+      <c r="B41" s="78"/>
       <c r="C41" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="74"/>
+      <c r="D41" s="78"/>
       <c r="E41" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="74"/>
+      <c r="F41" s="78"/>
       <c r="G41" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="74"/>
+      <c r="H41" s="78"/>
       <c r="I41" s="22"/>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
@@ -8968,25 +8968,25 @@
       <c r="A42" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="73">
+      <c r="B42" s="80">
         <v>412</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="75">
+      <c r="D42" s="77">
         <v>213</v>
       </c>
       <c r="E42" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="F42" s="75">
+      <c r="F42" s="77">
         <v>212</v>
       </c>
       <c r="G42" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="H42" s="75">
+      <c r="H42" s="77">
         <v>403</v>
       </c>
       <c r="I42" s="22"/>
@@ -9170,19 +9170,19 @@
       <c r="A43" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="74"/>
+      <c r="B43" s="78"/>
       <c r="C43" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="74"/>
+      <c r="D43" s="78"/>
       <c r="E43" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="74"/>
+      <c r="F43" s="78"/>
       <c r="G43" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H43" s="81"/>
+      <c r="H43" s="76"/>
       <c r="I43" s="22"/>
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
@@ -9364,19 +9364,19 @@
       <c r="A44" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="73">
+      <c r="B44" s="80">
         <v>412</v>
       </c>
       <c r="C44" s="33"/>
-      <c r="D44" s="73"/>
+      <c r="D44" s="80"/>
       <c r="E44" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="78"/>
+      <c r="F44" s="86"/>
       <c r="G44" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="H44" s="73">
+      <c r="H44" s="80">
         <v>403</v>
       </c>
       <c r="I44" s="22"/>
@@ -9560,15 +9560,15 @@
       <c r="A45" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="82"/>
+      <c r="B45" s="81"/>
       <c r="C45" s="34"/>
-      <c r="D45" s="82"/>
+      <c r="D45" s="81"/>
       <c r="E45" s="37"/>
-      <c r="F45" s="79"/>
+      <c r="F45" s="87"/>
       <c r="G45" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="H45" s="82"/>
+      <c r="H45" s="81"/>
       <c r="I45" s="22"/>
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
@@ -10130,23 +10130,23 @@
       <c r="A48" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="73">
+      <c r="B48" s="80">
         <v>214</v>
       </c>
       <c r="C48" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="86">
+      <c r="D48" s="79">
         <v>211</v>
       </c>
       <c r="E48" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="73"/>
+      <c r="F48" s="80"/>
       <c r="G48" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="H48" s="73">
+      <c r="H48" s="80">
         <v>112</v>
       </c>
       <c r="I48" s="22"/>
@@ -10330,17 +10330,17 @@
       <c r="A49" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="74"/>
+      <c r="B49" s="78"/>
       <c r="C49" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="74"/>
+      <c r="D49" s="78"/>
       <c r="E49" s="31"/>
-      <c r="F49" s="74"/>
+      <c r="F49" s="78"/>
       <c r="G49" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H49" s="74"/>
+      <c r="H49" s="78"/>
       <c r="I49" s="22"/>
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
@@ -10522,25 +10522,25 @@
       <c r="A50" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="73">
+      <c r="B50" s="80">
         <v>214</v>
       </c>
       <c r="C50" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="75">
+      <c r="D50" s="77">
         <v>211</v>
       </c>
       <c r="E50" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="75">
+      <c r="F50" s="77">
         <v>412</v>
       </c>
       <c r="G50" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="H50" s="75">
+      <c r="H50" s="77">
         <v>112</v>
       </c>
       <c r="I50" s="22"/>
@@ -10724,19 +10724,19 @@
       <c r="A51" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="74"/>
+      <c r="B51" s="78"/>
       <c r="C51" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="74"/>
+      <c r="D51" s="78"/>
       <c r="E51" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="74"/>
+      <c r="F51" s="78"/>
       <c r="G51" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H51" s="74"/>
+      <c r="H51" s="78"/>
       <c r="I51" s="22"/>
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
@@ -10918,25 +10918,25 @@
       <c r="A52" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="75">
+      <c r="B52" s="77">
         <v>213</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D52" s="75">
+      <c r="D52" s="77">
         <v>212</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F52" s="75">
+      <c r="F52" s="77">
         <v>412</v>
       </c>
       <c r="G52" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H52" s="80"/>
+      <c r="H52" s="75"/>
       <c r="I52" s="22"/>
       <c r="J52" s="15"/>
       <c r="K52" s="15"/>
@@ -11118,17 +11118,17 @@
       <c r="A53" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="74"/>
+      <c r="B53" s="78"/>
       <c r="C53" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="74"/>
+      <c r="D53" s="78"/>
       <c r="E53" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F53" s="74"/>
+      <c r="F53" s="78"/>
       <c r="G53" s="31"/>
-      <c r="H53" s="81"/>
+      <c r="H53" s="76"/>
       <c r="I53" s="22"/>
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
@@ -11310,23 +11310,23 @@
       <c r="A54" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="75">
+      <c r="B54" s="77">
         <v>213</v>
       </c>
       <c r="C54" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="75">
+      <c r="D54" s="77">
         <v>212</v>
       </c>
       <c r="E54" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F54" s="73">
+      <c r="F54" s="80">
         <v>412</v>
       </c>
       <c r="G54" s="30"/>
-      <c r="H54" s="73"/>
+      <c r="H54" s="80"/>
       <c r="I54" s="22"/>
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
@@ -11508,17 +11508,17 @@
       <c r="A55" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="82"/>
+      <c r="B55" s="81"/>
       <c r="C55" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="82"/>
+      <c r="D55" s="81"/>
       <c r="E55" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F55" s="82"/>
+      <c r="F55" s="81"/>
       <c r="G55" s="34"/>
-      <c r="H55" s="82"/>
+      <c r="H55" s="81"/>
       <c r="I55" s="23"/>
       <c r="J55" s="15"/>
       <c r="K55" s="15"/>
@@ -12080,19 +12080,19 @@
       <c r="A58" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="75">
+      <c r="B58" s="77">
         <v>112</v>
       </c>
       <c r="C58" s="32"/>
-      <c r="D58" s="86"/>
+      <c r="D58" s="79"/>
       <c r="E58" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="F58" s="76">
+      <c r="F58" s="82">
         <v>412</v>
       </c>
       <c r="G58" s="30"/>
-      <c r="H58" s="73"/>
+      <c r="H58" s="80"/>
       <c r="I58" s="22"/>
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
@@ -12274,15 +12274,15 @@
       <c r="A59" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="74"/>
+      <c r="B59" s="78"/>
       <c r="C59" s="31"/>
-      <c r="D59" s="74"/>
+      <c r="D59" s="78"/>
       <c r="E59" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F59" s="81"/>
+      <c r="F59" s="76"/>
       <c r="G59" s="31"/>
-      <c r="H59" s="74"/>
+      <c r="H59" s="78"/>
       <c r="I59" s="22"/>
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
@@ -12464,7 +12464,7 @@
       <c r="A60" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="75" t="s">
+      <c r="B60" s="77" t="s">
         <v>67</v>
       </c>
       <c r="C60" s="30" t="s">
@@ -12476,11 +12476,11 @@
       <c r="E60" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F60" s="80">
+      <c r="F60" s="75">
         <v>412</v>
       </c>
       <c r="G60" s="33"/>
-      <c r="H60" s="80"/>
+      <c r="H60" s="75"/>
       <c r="I60" s="22"/>
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
@@ -12662,7 +12662,7 @@
       <c r="A61" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="74"/>
+      <c r="B61" s="78"/>
       <c r="C61" s="31" t="s">
         <v>65</v>
       </c>
@@ -12670,9 +12670,9 @@
       <c r="E61" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="81"/>
+      <c r="F61" s="76"/>
       <c r="G61" s="31"/>
-      <c r="H61" s="81"/>
+      <c r="H61" s="76"/>
       <c r="I61" s="22"/>
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
@@ -12854,21 +12854,21 @@
       <c r="A62" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="75">
+      <c r="B62" s="77">
         <v>214</v>
       </c>
       <c r="C62" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="75" t="s">
+      <c r="D62" s="77" t="s">
         <v>67</v>
       </c>
       <c r="E62" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="F62" s="80"/>
+      <c r="F62" s="75"/>
       <c r="G62" s="33"/>
-      <c r="H62" s="75"/>
+      <c r="H62" s="77"/>
       <c r="I62" s="22"/>
       <c r="J62" s="15"/>
       <c r="K62" s="15"/>
@@ -13050,15 +13050,15 @@
       <c r="A63" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B63" s="74"/>
+      <c r="B63" s="78"/>
       <c r="C63" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="74"/>
+      <c r="D63" s="78"/>
       <c r="E63" s="31"/>
-      <c r="F63" s="81"/>
+      <c r="F63" s="76"/>
       <c r="G63" s="31"/>
-      <c r="H63" s="74"/>
+      <c r="H63" s="78"/>
       <c r="I63" s="22"/>
       <c r="J63" s="15"/>
       <c r="K63" s="15"/>
@@ -13240,17 +13240,17 @@
       <c r="A64" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B64" s="87">
+      <c r="B64" s="71">
         <v>214</v>
       </c>
       <c r="C64" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="89"/>
+      <c r="D64" s="73"/>
       <c r="E64" s="30"/>
-      <c r="F64" s="80"/>
+      <c r="F64" s="75"/>
       <c r="G64" s="35"/>
-      <c r="H64" s="78"/>
+      <c r="H64" s="86"/>
       <c r="I64" s="22"/>
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
@@ -13432,13 +13432,13 @@
       <c r="A65" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="88"/>
+      <c r="B65" s="72"/>
       <c r="C65" s="34"/>
-      <c r="D65" s="77"/>
+      <c r="D65" s="74"/>
       <c r="E65" s="34"/>
-      <c r="F65" s="77"/>
+      <c r="F65" s="74"/>
       <c r="G65" s="37"/>
-      <c r="H65" s="79"/>
+      <c r="H65" s="87"/>
       <c r="I65" s="22"/>
       <c r="J65" s="15"/>
       <c r="K65" s="15"/>
@@ -13832,6 +13832,84 @@
     <row r="69" spans="1:184" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H42:H43"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="F32:F33"/>
@@ -13848,84 +13926,6 @@
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="B62:B63"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="F20:F21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
